--- a/VitalSigns/NordicTXTestBuild/ValueSet-NoDomainVitalSignsBodyExposureValueSet.xlsx
+++ b/VitalSigns/NordicTXTestBuild/ValueSet-NoDomainVitalSignsBodyExposureValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:12:57+00:00</t>
+    <t>2025-09-03T12:08:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/NordicTXTestBuild/ValueSet-NoDomainVitalSignsBodyExposureValueSet.xlsx
+++ b/VitalSigns/NordicTXTestBuild/ValueSet-NoDomainVitalSignsBodyExposureValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T12:08:22+00:00</t>
+    <t>2025-09-04T06:39:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/NordicTXTestBuild/ValueSet-NoDomainVitalSignsBodyExposureValueSet.xlsx
+++ b/VitalSigns/NordicTXTestBuild/ValueSet-NoDomainVitalSignsBodyExposureValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T06:39:46+00:00</t>
+    <t>2025-09-04T07:38:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/NordicTXTestBuild/ValueSet-NoDomainVitalSignsBodyExposureValueSet.xlsx
+++ b/VitalSigns/NordicTXTestBuild/ValueSet-NoDomainVitalSignsBodyExposureValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T07:38:11+00:00</t>
+    <t>2025-09-04T09:49:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/NordicTXTestBuild/ValueSet-NoDomainVitalSignsBodyExposureValueSet.xlsx
+++ b/VitalSigns/NordicTXTestBuild/ValueSet-NoDomainVitalSignsBodyExposureValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T09:49:34+00:00</t>
+    <t>2025-09-04T11:47:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/NordicTXTestBuild/ValueSet-NoDomainVitalSignsBodyExposureValueSet.xlsx
+++ b/VitalSigns/NordicTXTestBuild/ValueSet-NoDomainVitalSignsBodyExposureValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T11:47:27+00:00</t>
+    <t>2025-09-08T07:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
